--- a/bin/test1/design_config/CFG_World.xlsx
+++ b/bin/test1/design_config/CFG_World.xlsx
@@ -13,19 +13,22 @@
   <calcPr iterateDelta="0.0001"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1619957204" val="982" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1619957204" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1619957204" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1619957204"/>
+      <pm:revision xmlns:pm="smNativeData" day="1620034024" val="982" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1620034024" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1620034024" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1620034024"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="54">
-  <si>
-    <t>id</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="56">
+  <si>
+    <t>worldId</t>
+  </si>
+  <si>
+    <t>world_desc</t>
   </si>
   <si>
     <t>world_int_1</t>
@@ -109,12 +112,12 @@
     <t>string三维数组1</t>
   </si>
   <si>
+    <t>world1</t>
+  </si>
+  <si>
     <t>被忽略</t>
   </si>
   <si>
-    <t>world1</t>
-  </si>
-  <si>
     <t>11|22</t>
   </si>
   <si>
@@ -124,12 +127,12 @@
     <t>qqq</t>
   </si>
   <si>
+    <t>world2</t>
+  </si>
+  <si>
     <t>随意</t>
   </si>
   <si>
-    <t>world2</t>
-  </si>
-  <si>
     <t>22|33</t>
   </si>
   <si>
@@ -145,12 +148,12 @@
     <t>www|eee</t>
   </si>
   <si>
+    <t>world3</t>
+  </si>
+  <si>
     <t>哈喽3</t>
   </si>
   <si>
-    <t>world3</t>
-  </si>
-  <si>
     <t>xx|yy</t>
   </si>
   <si>
@@ -166,12 +169,12 @@
     <t>rr|tt|cc#ff|gg</t>
   </si>
   <si>
+    <t>world4</t>
+  </si>
+  <si>
     <t>哈喽4</t>
   </si>
   <si>
-    <t>world4</t>
-  </si>
-  <si>
     <t>55|66</t>
   </si>
   <si>
@@ -184,7 +187,10 @@
     <t>x|yy#q|w|e+12|vv#xx|yy</t>
   </si>
   <si>
-    <t>空白的处理，  0  “”</t>
+    <t>world5</t>
+  </si>
+  <si>
+    <t>空白的处理 不要有逗号  0  “”</t>
   </si>
 </sst>
 </file>
@@ -214,7 +220,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1619957204" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1620034024" ulstyle="none" kern="1">
             <pm:latin face="等线" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -229,7 +235,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1619957204" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1620034024" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -245,7 +251,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1619957204" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1620034024" ulstyle="none" kern="1">
             <pm:latin face="微软雅黑" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -267,7 +273,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1619957204" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1620034024" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -289,7 +295,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1619957204"/>
+          <pm:border xmlns:pm="smNativeData" id="1620034024"/>
         </ext>
       </extLst>
     </border>
@@ -308,7 +314,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1619957204"/>
+          <pm:border xmlns:pm="smNativeData" id="1620034024"/>
         </ext>
       </extLst>
     </border>
@@ -349,7 +355,7 @@
         <color rgb="FF9C0006"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1619957204" fgClr="9C0006">
+            <pm:charSpec xmlns:pm="smNativeData" id="1620034024" fgClr="9C0006">
               <pm:latin/>
               <pm:cs/>
               <pm:ea/>
@@ -362,7 +368,7 @@
           <bgColor rgb="FFFFC7CE"/>
           <extLst>
             <ext uri="smNativeData">
-              <pm:shade xmlns:pm="smNativeData" id="1619957204" type="1" fgLvl="100" fgClr="00FFC7CE" bgLvl="100" bgClr="FFFFFFFF"/>
+              <pm:shade xmlns:pm="smNativeData" id="1620034024" type="1" fgLvl="100" fgClr="00FFC7CE" bgLvl="100" bgClr="FFFFFFFF"/>
             </ext>
           </extLst>
         </patternFill>
@@ -373,7 +379,7 @@
         <color rgb="FF9C0006"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:charSpec xmlns:pm="smNativeData" id="1619957204" fgClr="9C0006">
+            <pm:charSpec xmlns:pm="smNativeData" id="1620034024" fgClr="9C0006">
               <pm:latin/>
               <pm:cs/>
               <pm:ea/>
@@ -386,7 +392,7 @@
           <bgColor rgb="FFFFC7CE"/>
           <extLst>
             <ext uri="smNativeData">
-              <pm:shade xmlns:pm="smNativeData" id="1619957204" type="1" fgLvl="100" fgClr="00FFC7CE" bgLvl="100" bgClr="FFFFFFFF"/>
+              <pm:shade xmlns:pm="smNativeData" id="1620034024" type="1" fgLvl="100" fgClr="00FFC7CE" bgLvl="100" bgClr="FFFFFFFF"/>
             </ext>
           </extLst>
         </patternFill>
@@ -396,10 +402,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1619957204" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1620034024" count="1">
         <pm:charStyle name="普通" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1619957204" count="3">
+      <pm:colors xmlns:pm="smNativeData" id="1620034024" count="3">
         <pm:color name="颜色 24" rgb="9C0006"/>
         <pm:color name="颜色 25" rgb="FFC7CE"/>
         <pm:color name="20% 灰色" rgb="000000"/>
@@ -669,7 +675,7 @@
   <sheetViews>
     <sheetView tabSelected="1" view="normal" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.034483" defaultRowHeight="15.20"/>
@@ -691,127 +697,136 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
       <c r="C1" s="6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20.10" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>9</v>
-      </c>
       <c r="E2" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="20.10" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="20.10" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="20.10" customHeight="1">
-      <c r="A5" s="6" t="n">
-        <v>1</v>
+      <c r="A5" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C5" s="6" t="n">
         <v>111</v>
@@ -820,30 +835,30 @@
         <v>29</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>111</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>111</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="20.10" customHeight="1">
-      <c r="A6" s="6" t="n">
-        <v>2</v>
+      <c r="A6" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C6" s="6" t="n">
         <v>222</v>
@@ -852,30 +867,30 @@
         <v>34</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="I6" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="20.10" customHeight="1">
-      <c r="A7" s="6" t="n">
-        <v>3</v>
+      <c r="A7" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C7" s="6" t="n">
         <v>333</v>
@@ -887,27 +902,27 @@
         <v>88</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="20.10" customHeight="1">
-      <c r="A8" s="6" t="n">
-        <v>4</v>
+      <c r="A8" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C8" s="6" t="n">
         <v>444</v>
@@ -916,24 +931,24 @@
         <v>48</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="6" t="n">
-        <v>5</v>
+      <c r="A9" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -946,7 +961,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1619957204" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1620034024" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -955,16 +970,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1619957204" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1619957204" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1619957204" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1619957204" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1620034024" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1620034024" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1620034024" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1620034024" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1619957204" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1620034024" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
